--- a/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
+++ b/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>诺安益鑫灵活配置混合</t>
   </si>
   <si>
+    <t>0.27</t>
+  </si>
+  <si>
     <t>64.57</t>
   </si>
   <si>
     <t>5.54</t>
+  </si>
+  <si>
+    <t>0.0150</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
+++ b/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>002292</t>
-  </si>
-  <si>
-    <t>诺安益鑫灵活配置混合</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>64.57</t>
-  </si>
-  <si>
-    <t>5.54</t>
-  </si>
-  <si>
-    <t>0.0150</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3544</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2651</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7620</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2636</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
+++ b/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5889</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6057</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1955</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9899</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9064</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8645</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6156</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4340</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3872</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2375</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
+++ b/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1676,4 +1677,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
+++ b/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.55</v>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9519</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6464</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.11</v>
       </c>
     </row>
     <row r="4">
@@ -1748,13 +1813,2149 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>46.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4841</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4648</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3950</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1809</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>61.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1502</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8818</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5371</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5340</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5278</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5026</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4993</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4037</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3877</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3264</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3090</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3015</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2836</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2486</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>33.22</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
+++ b/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3870,7 +3871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3881,17 +3882,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3901,14 +3922,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>56</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.52</v>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8675</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3917,14 +3960,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.55</v>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8445</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3933,14 +3998,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.11</v>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3949,13 +4036,2355 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>42.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5034</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3658</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9262</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7284</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7152</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6991</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011357</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6521</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6088</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4407</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4398</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009990</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3372</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2881</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2172</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1801</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010122</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1075</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009991</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>72.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011358</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>50.08</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010123</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>73.72</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009027</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>浦银安盛安远回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>62</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
+++ b/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6283,7 +6284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6294,17 +6295,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6314,14 +6335,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.73</v>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5969</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6330,14 +6373,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>56</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.52</v>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2132</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6346,14 +6411,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.55</v>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9283</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -6362,14 +6449,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.11</v>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8471</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -6378,13 +6487,4153 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7441</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4056</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1992</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9923</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9436</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010264</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9290</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7809</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6804</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6710</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6672</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6299</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5533</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5378</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5318</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4699</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>73.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4378</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011949</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4091</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4072</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3813</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3685</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3237</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3178</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2700</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2648</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2597</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>501064</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2597</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2486</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2302</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1924</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>570005</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺德成长优势混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010265</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>77.69</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001892</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长盛新兴成长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003561</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>金鹰量化精选股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>014989</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003562</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>诺德成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>110</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
+++ b/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D2" t="n">
-        <v>31.57</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D3" t="n">
-        <v>20.73</v>
+        <v>31.57</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D4" t="n">
-        <v>18.52</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
-        <v>12.55</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>5.11</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -583,6 +600,2646 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2448</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信兴润一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2082</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5581</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信健康民生混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5319</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4180</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4066</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3844</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3722</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信改革红利股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3484</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>49.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2756</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001701</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012523</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001388</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001387</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>66.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014989</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015585</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012524</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中融高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>016269</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>建信改革红利股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4814,7 +7471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7226,7 +9883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9410,7 +12067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10264,7 +12921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10548,7 +13205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
+++ b/数据整理/stocks/A股/深证主板/000519-中兵红箭.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>9.81</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
-        <v>31.57</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="D4" t="n">
-        <v>20.73</v>
+        <v>31.57</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D5" t="n">
-        <v>18.52</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D6" t="n">
-        <v>12.55</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>5.11</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -600,6 +617,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2822</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>49.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001231</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002328</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华泰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3239,7 +3730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7471,7 +7962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9883,7 +10374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12067,7 +12558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12921,7 +13412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13205,7 +13696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
